--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>

--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1757,7 +1757,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2180,16 +2179,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4885,7 +4884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
